--- a/biology/Médecine/Tej_Tadi/Tej_Tadi.xlsx
+++ b/biology/Médecine/Tej_Tadi/Tej_Tadi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tej Tadi est un neurobiologiste, président-directeur général de l'entreprise MindMaze.
-Son entreprise, qui génère 30 millions de dollars de revenus par an grâce à sa plateforme informatique et devient Licorne en 2016[1], est valorisée à plus de 1,6 milliard de dollars en 2023[2].
+Son entreprise, qui génère 30 millions de dollars de revenus par an grâce à sa plateforme informatique et devient Licorne en 2016, est valorisée à plus de 1,6 milliard de dollars en 2023.
 </t>
         </is>
       </c>
@@ -514,20 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Enfance et formation
-Tej Tadi est né dans une famille de médecins à Hyderabad. Après avoir étudié l'ingénierie électronique en Inde, il s'installe en Suisse en 2004[3],[4] pour poursuivre son doctorat, qu'il obtient à l'École Polytechnique Fédérale de Lausanne (EPFL). Son sujet porte sur les mécanismes neuronaux du soi incarné : fusion de la réalité virtuelle et de la neuroimagerie électrique. Il est membre du conseil consultatif international du Brain Forum[5].
-Carrière
-Tej Tadi intervient lors de conférences scientifiques à travers le monde et intervient dans Forbes, Fortune et Techcrunch[6],[7].
-En 2014, il participe à une conférence Ted pour parler de l'accélération de la récupération après un accident vasculaire cérébral[8].
-Il crée la société suisse MindMaze pour laquelle il trouve un premier financement de 10 millions de dollars en 2012. En 2016, il vend moins du tiers du capital de MindMaze à Hinduja Group, ce qui fait de cette société une licorne[9]. 
-Grâce au soutien de Leonardo di Caprio, une levée de fonds de 105 millions de dollars peut être réalisée en 2022[10]. 
-MindMaze vend notamment des jeux pour aider les personnes malades du cerveau[11]. 
-Selon le magazine Bilan, il fait partie des 300 plus importantes fortunes de Suisse au classement 2022, avec la 167e position[12].
-Brevets déposés
-Brevet US 2016235323 application
-Brevet WO 2014154839 application
-Brevet WO 2016139576 application
-Brevet US 2017209737 application</t>
+          <t>Enfance et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tej Tadi est né dans une famille de médecins à Hyderabad. Après avoir étudié l'ingénierie électronique en Inde, il s'installe en Suisse en 2004, pour poursuivre son doctorat, qu'il obtient à l'École Polytechnique Fédérale de Lausanne (EPFL). Son sujet porte sur les mécanismes neuronaux du soi incarné : fusion de la réalité virtuelle et de la neuroimagerie électrique. Il est membre du conseil consultatif international du Brain Forum.
+</t>
         </is>
       </c>
     </row>
@@ -552,15 +558,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distinctions</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>En 2009, la Fondation Pfizer décerne à TejTadi le prix de la recherche en neurosciences[13].
-En 2011, il reçoit le Prix de la Fondation Chorafas pour son travail[14]. Il est nommé Entrepreneur de l’année par le cabinet Ernst &amp; Young[15],[16].
-En 2012, l'IMD Business School lui décerne le prix de la startup de l'année[17].
-En 2015, le Forum économique mondial l'a nommé Jeune leader mondial[18],[19].</t>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tej Tadi intervient lors de conférences scientifiques à travers le monde et intervient dans Forbes, Fortune et Techcrunch,.
+En 2014, il participe à une conférence Ted pour parler de l'accélération de la récupération après un accident vasculaire cérébral.
+Il crée la société suisse MindMaze pour laquelle il trouve un premier financement de 10 millions de dollars en 2012. En 2016, il vend moins du tiers du capital de MindMaze à Hinduja Group, ce qui fait de cette société une licorne. 
+Grâce au soutien de Leonardo di Caprio, une levée de fonds de 105 millions de dollars peut être réalisée en 2022. 
+MindMaze vend notamment des jeux pour aider les personnes malades du cerveau. 
+Selon le magazine Bilan, il fait partie des 300 plus importantes fortunes de Suisse au classement 2022, avec la 167e position.
+</t>
         </is>
       </c>
     </row>
@@ -585,12 +600,88 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Brevets déposés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Brevet US 2016235323 application
+Brevet WO 2014154839 application
+Brevet WO 2016139576 application
+Brevet US 2017209737 application</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tej_Tadi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tej_Tadi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 2009, la Fondation Pfizer décerne à TejTadi le prix de la recherche en neurosciences.
+En 2011, il reçoit le Prix de la Fondation Chorafas pour son travail. Il est nommé Entrepreneur de l’année par le cabinet Ernst &amp; Young,.
+En 2012, l'IMD Business School lui décerne le prix de la startup de l'année.
+En 2015, le Forum économique mondial l'a nommé Jeune leader mondial,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tej_Tadi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tej_Tadi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tej Tadi est coauteur de plusieurs articles de revues à comité de lecture dans les domaines du soi incarné[20],[21], de la manipulation de la conscience de soi corporelle[22],[23], des limites de l'action et de l'expérience consciente[24] des humains et de la neuroréadaptation[25] en utilisant des techniques de réalité virtuelle et d’imagerie cérébrale[26],[27].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tej Tadi est coauteur de plusieurs articles de revues à comité de lecture dans les domaines du soi incarné de la manipulation de la conscience de soi corporelle des limites de l'action et de l'expérience consciente des humains et de la neuroréadaptation en utilisant des techniques de réalité virtuelle et d’imagerie cérébrale,.
 </t>
         </is>
       </c>
